--- a/applications.xlsx
+++ b/applications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,75 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dfad</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>davgf</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>dfva</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>vfad</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>afv</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>У турникетов</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>dfvaf</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>vfa</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>dfv</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
